--- a/Debug/Scores.xlsx
+++ b/Debug/Scores.xlsx
@@ -7,10 +7,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Праллельный" sheetId="1" r:id="rId1"/>
+    <sheet name="Последовательный" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="test" localSheetId="0">Лист1!$A$1:$L$4</definedName>
+    <definedName name="test" localSheetId="0">Праллельный!$A$1:$L$11</definedName>
+    <definedName name="test_not_parallel" localSheetId="1">Последовательный!$A$1:$C$201</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -81,11 +83,20 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="test_not_parallel" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="866" sourceFile="C:\Users\Sam\source\repos\Arch_Lab_1\Debug\test_not_parallel.txt" thousands=" " tab="0" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="1">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -199,7 +210,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$1</c:f>
+              <c:f>Праллельный!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -222,10 +233,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Праллельный!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -234,24 +245,66 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$4</c:f>
+              <c:f>Праллельный!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.8799899999999999E-5</c:v>
+                  <c:v>2.5599999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9700000000000001E-5</c:v>
+                  <c:v>1.88001E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.91E-5</c:v>
+                  <c:v>1.9199899999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8899999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2900100000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3499900000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.73001E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.66002E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8999900000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.50998E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -268,7 +321,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$1</c:f>
+              <c:f>Праллельный!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -291,10 +344,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Праллельный!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -303,24 +356,66 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$4</c:f>
+              <c:f>Праллельный!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.2509999999999996E-4</c:v>
+                  <c:v>4.0650000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5959999999999997E-4</c:v>
+                  <c:v>4.906E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8569999999999999E-4</c:v>
+                  <c:v>5.0690000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1195000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0610000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.783E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9860000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.682E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7970000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5669999999999995E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -337,7 +432,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$D$1</c:f>
+              <c:f>Праллельный!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -360,10 +455,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Праллельный!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -372,24 +467,66 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$4</c:f>
+              <c:f>Праллельный!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.5720000000000004E-4</c:v>
+                  <c:v>5.1610000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.785E-4</c:v>
+                  <c:v>6.6350000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4889999999999998E-4</c:v>
+                  <c:v>8.4309999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4179999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9810000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2900000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4660000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1629999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2119999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8210000000000005E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -406,7 +543,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$E$1</c:f>
+              <c:f>Праллельный!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -429,10 +566,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Праллельный!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -441,24 +578,66 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$4</c:f>
+              <c:f>Праллельный!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1313E-3</c:v>
+                  <c:v>9.4269999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1777999999999999E-3</c:v>
+                  <c:v>1.1957999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1632999999999999E-3</c:v>
+                  <c:v>1.1797000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.073E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1448999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2650999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5900000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6141E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3162E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8018000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -475,7 +654,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$F$1</c:f>
+              <c:f>Праллельный!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -498,10 +677,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Праллельный!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -510,24 +689,66 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$2:$F$4</c:f>
+              <c:f>Праллельный!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.4572999999999999E-3</c:v>
+                  <c:v>1.3802E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3623000000000001E-3</c:v>
+                  <c:v>2.7052000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2796999999999999E-3</c:v>
+                  <c:v>1.2842999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6665E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5927999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9805999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3535000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6812999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5073E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1342000000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -544,7 +765,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$G$1</c:f>
+              <c:f>Праллельный!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -567,10 +788,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Праллельный!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -579,24 +800,66 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$G$2:$G$4</c:f>
+              <c:f>Праллельный!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.3518E-3</c:v>
+                  <c:v>2.4212999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6457999999999998E-3</c:v>
+                  <c:v>1.7991999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7604000000000001E-3</c:v>
+                  <c:v>3.3687000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7688999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2614E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4663E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5809999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5757E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7137000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3601999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -613,7 +876,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$H$1</c:f>
+              <c:f>Праллельный!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -638,10 +901,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Праллельный!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -650,24 +913,66 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$H$2:$H$4</c:f>
+              <c:f>Праллельный!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.5066999999999999E-3</c:v>
+                  <c:v>1.6578999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8831E-3</c:v>
+                  <c:v>1.5926E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9407999999999999E-3</c:v>
+                  <c:v>2.2160000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9677000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7583E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9580000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6630999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2834999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4228000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6394000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,7 +989,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$I$1</c:f>
+              <c:f>Праллельный!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -709,10 +1014,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Праллельный!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -721,24 +1026,66 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$I$2:$I$4</c:f>
+              <c:f>Праллельный!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.2442999999999999E-3</c:v>
+                  <c:v>1.9017999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9629999999999999E-3</c:v>
+                  <c:v>2.0956E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7163000000000001E-3</c:v>
+                  <c:v>3.3438000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2868000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5918E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0276999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8741000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5858999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9322E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,7 +1102,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$J$1</c:f>
+              <c:f>Праллельный!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -780,10 +1127,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Праллельный!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -792,24 +1139,66 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$J$2:$J$4</c:f>
+              <c:f>Праллельный!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.1578000000000001E-3</c:v>
+                  <c:v>4.5602000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3405000000000002E-3</c:v>
+                  <c:v>4.3302000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4456999999999999E-3</c:v>
+                  <c:v>2.9773999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8806000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1239000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2699000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9258000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2716999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1172000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6175000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -826,7 +1215,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$K$1</c:f>
+              <c:f>Праллельный!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -851,10 +1240,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Праллельный!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -863,24 +1252,66 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$K$2:$K$4</c:f>
+              <c:f>Праллельный!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3517999999999998E-3</c:v>
+                  <c:v>4.7530999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5676000000000002E-3</c:v>
+                  <c:v>2.9153999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0612999999999999E-3</c:v>
+                  <c:v>3.7016000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1796000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0134999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9480999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2726999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6052000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6625E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4545000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,7 +1519,1526 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Последовательный!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Последовательный!$A$2:$A$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10300</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10700</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10900</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11300</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11700</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11900</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12400</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12700</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12900</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13100</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13200</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13300</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13400</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13900</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14100</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14300</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14700</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14800</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14900</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15100</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15400</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15700</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15900</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16100</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16300</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16700</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16800</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16900</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17100</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17200</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17300</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17400</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17700</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17800</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17900</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18100</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18200</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18300</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18400</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18700</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18800</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18900</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19100</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19300</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19400</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19700</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19800</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19900</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Последовательный!$B$2:$B$201</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0999999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9E-6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7E-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7E-6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.0999999999999993E-6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.2000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7E-6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.0000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.3000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.0999999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7E-6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7E-6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.5000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.5999999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.9E-6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.7E-6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.9000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.7E-6</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.7E-6</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.7E-6</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.7E-6</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.1000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.9E-6</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.2000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.1000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.1000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67BF-446A-92AF-DDE352F34488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="436600872"/>
+        <c:axId val="436571680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="436600872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436571680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="436571680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436600872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1644,6 +3594,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1679,8 +4145,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test_not_parallel" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1946,18 +4453,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" customWidth="1"/>
+    <col min="12" max="12" width="1.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="51" width="10" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="1.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2002,34 +4509,34 @@
         <v>100</v>
       </c>
       <c r="B2" s="1">
-        <v>1.8799899999999999E-5</v>
+        <v>2.5599999999999999E-5</v>
       </c>
       <c r="C2">
-        <v>6.2509999999999996E-4</v>
+        <v>4.0650000000000001E-4</v>
       </c>
       <c r="D2">
-        <v>6.5720000000000004E-4</v>
+        <v>5.1610000000000002E-4</v>
       </c>
       <c r="E2">
-        <v>1.1313E-3</v>
+        <v>9.4269999999999998E-4</v>
       </c>
       <c r="F2">
-        <v>1.4572999999999999E-3</v>
+        <v>1.3802E-3</v>
       </c>
       <c r="G2">
-        <v>1.3518E-3</v>
+        <v>2.4212999999999999E-3</v>
       </c>
       <c r="H2">
-        <v>1.5066999999999999E-3</v>
+        <v>1.6578999999999999E-3</v>
       </c>
       <c r="I2">
-        <v>2.2442999999999999E-3</v>
+        <v>1.9017999999999999E-3</v>
       </c>
       <c r="J2">
-        <v>3.1578000000000001E-3</v>
+        <v>4.5602000000000004E-3</v>
       </c>
       <c r="K2">
-        <v>3.3517999999999998E-3</v>
+        <v>4.7530999999999997E-3</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
@@ -2040,34 +4547,34 @@
         <v>200</v>
       </c>
       <c r="B3" s="1">
-        <v>1.9700000000000001E-5</v>
+        <v>1.88001E-5</v>
       </c>
       <c r="C3">
-        <v>8.5959999999999997E-4</v>
+        <v>4.906E-4</v>
       </c>
       <c r="D3">
-        <v>7.785E-4</v>
+        <v>6.6350000000000003E-4</v>
       </c>
       <c r="E3">
-        <v>1.1777999999999999E-3</v>
+        <v>1.1957999999999999E-3</v>
       </c>
       <c r="F3">
-        <v>1.3623000000000001E-3</v>
+        <v>2.7052000000000001E-3</v>
       </c>
       <c r="G3">
-        <v>2.6457999999999998E-3</v>
+        <v>1.7991999999999999E-3</v>
       </c>
       <c r="H3">
-        <v>1.8831E-3</v>
+        <v>1.5926E-3</v>
       </c>
       <c r="I3">
-        <v>2.9629999999999999E-3</v>
+        <v>2.0956E-3</v>
       </c>
       <c r="J3">
-        <v>3.3405000000000002E-3</v>
+        <v>4.3302000000000002E-3</v>
       </c>
       <c r="K3">
-        <v>3.5676000000000002E-3</v>
+        <v>2.9153999999999998E-3</v>
       </c>
       <c r="L3" t="s">
         <v>0</v>
@@ -2078,36 +4585,2531 @@
         <v>300</v>
       </c>
       <c r="B4" s="1">
-        <v>1.91E-5</v>
+        <v>1.9199899999999999E-5</v>
       </c>
       <c r="C4">
-        <v>4.8569999999999999E-4</v>
+        <v>5.0690000000000002E-4</v>
       </c>
       <c r="D4">
-        <v>8.4889999999999998E-4</v>
+        <v>8.4309999999999995E-4</v>
       </c>
       <c r="E4">
-        <v>1.1632999999999999E-3</v>
+        <v>1.1797000000000001E-3</v>
       </c>
       <c r="F4">
-        <v>1.2796999999999999E-3</v>
+        <v>1.2842999999999999E-3</v>
       </c>
       <c r="G4">
-        <v>1.7604000000000001E-3</v>
+        <v>3.3687000000000001E-3</v>
       </c>
       <c r="H4">
-        <v>1.9407999999999999E-3</v>
+        <v>2.2160000000000001E-3</v>
       </c>
       <c r="I4">
-        <v>3.7163000000000001E-3</v>
+        <v>3.3438000000000001E-3</v>
       </c>
       <c r="J4">
-        <v>3.4456999999999999E-3</v>
+        <v>2.9773999999999998E-3</v>
       </c>
       <c r="K4">
-        <v>3.0612999999999999E-3</v>
+        <v>3.7016000000000002E-3</v>
       </c>
       <c r="L4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.8899999999999999E-5</v>
+      </c>
+      <c r="C5">
+        <v>1.1195000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>6.4179999999999999E-4</v>
+      </c>
+      <c r="E5">
+        <v>1.073E-3</v>
+      </c>
+      <c r="F5">
+        <v>1.6665E-3</v>
+      </c>
+      <c r="G5">
+        <v>2.7688999999999999E-3</v>
+      </c>
+      <c r="H5">
+        <v>5.9677000000000003E-3</v>
+      </c>
+      <c r="I5">
+        <v>4.2868000000000003E-3</v>
+      </c>
+      <c r="J5">
+        <v>3.8806000000000001E-3</v>
+      </c>
+      <c r="K5">
+        <v>4.1796000000000003E-3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.2900100000000001E-5</v>
+      </c>
+      <c r="C6">
+        <v>6.0610000000000004E-4</v>
+      </c>
+      <c r="D6">
+        <v>9.9810000000000003E-4</v>
+      </c>
+      <c r="E6">
+        <v>1.1448999999999999E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.5927999999999999E-3</v>
+      </c>
+      <c r="G6">
+        <v>1.2614E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.7583E-3</v>
+      </c>
+      <c r="I6">
+        <v>4.5918E-3</v>
+      </c>
+      <c r="J6">
+        <v>3.1239000000000002E-3</v>
+      </c>
+      <c r="K6">
+        <v>6.0134999999999997E-3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.3499900000000001E-5</v>
+      </c>
+      <c r="C7">
+        <v>7.783E-4</v>
+      </c>
+      <c r="D7">
+        <v>7.2900000000000005E-4</v>
+      </c>
+      <c r="E7">
+        <v>1.2650999999999999E-3</v>
+      </c>
+      <c r="F7">
+        <v>2.9805999999999999E-3</v>
+      </c>
+      <c r="G7">
+        <v>1.4663E-3</v>
+      </c>
+      <c r="H7">
+        <v>1.9580000000000001E-3</v>
+      </c>
+      <c r="I7">
+        <v>5.999E-3</v>
+      </c>
+      <c r="J7">
+        <v>6.2699000000000001E-3</v>
+      </c>
+      <c r="K7">
+        <v>9.9480999999999997E-3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.73001E-5</v>
+      </c>
+      <c r="C8">
+        <v>5.9860000000000002E-4</v>
+      </c>
+      <c r="D8">
+        <v>7.4660000000000004E-4</v>
+      </c>
+      <c r="E8">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="F8">
+        <v>1.3535000000000001E-3</v>
+      </c>
+      <c r="G8">
+        <v>1.5809999999999999E-3</v>
+      </c>
+      <c r="H8">
+        <v>2.6630999999999998E-3</v>
+      </c>
+      <c r="I8">
+        <v>3.0276999999999999E-3</v>
+      </c>
+      <c r="J8">
+        <v>2.9258000000000001E-3</v>
+      </c>
+      <c r="K8">
+        <v>8.2726999999999992E-3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.66002E-5</v>
+      </c>
+      <c r="C9">
+        <v>4.682E-4</v>
+      </c>
+      <c r="D9">
+        <v>8.1629999999999995E-4</v>
+      </c>
+      <c r="E9">
+        <v>1.6141E-3</v>
+      </c>
+      <c r="F9">
+        <v>1.6812999999999999E-3</v>
+      </c>
+      <c r="G9">
+        <v>1.5757E-3</v>
+      </c>
+      <c r="H9">
+        <v>2.2834999999999999E-3</v>
+      </c>
+      <c r="I9">
+        <v>9.8741000000000002E-3</v>
+      </c>
+      <c r="J9">
+        <v>6.2716999999999998E-3</v>
+      </c>
+      <c r="K9">
+        <v>4.6052000000000003E-3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.8999900000000001E-5</v>
+      </c>
+      <c r="C10">
+        <v>9.7970000000000002E-4</v>
+      </c>
+      <c r="D10">
+        <v>7.2119999999999997E-4</v>
+      </c>
+      <c r="E10">
+        <v>2.3162E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.5073E-3</v>
+      </c>
+      <c r="G10">
+        <v>1.7137000000000001E-3</v>
+      </c>
+      <c r="H10">
+        <v>2.4228000000000001E-3</v>
+      </c>
+      <c r="I10">
+        <v>6.5858999999999996E-3</v>
+      </c>
+      <c r="J10">
+        <v>3.1172000000000001E-3</v>
+      </c>
+      <c r="K10">
+        <v>4.6625E-3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.50998E-5</v>
+      </c>
+      <c r="C11">
+        <v>8.5669999999999995E-4</v>
+      </c>
+      <c r="D11">
+        <v>6.8210000000000005E-4</v>
+      </c>
+      <c r="E11">
+        <v>1.8018000000000001E-3</v>
+      </c>
+      <c r="F11">
+        <v>5.1342000000000002E-3</v>
+      </c>
+      <c r="G11">
+        <v>2.3601999999999998E-3</v>
+      </c>
+      <c r="H11">
+        <v>3.6394000000000001E-3</v>
+      </c>
+      <c r="I11">
+        <v>1.9322E-3</v>
+      </c>
+      <c r="J11">
+        <v>3.6175000000000001E-3</v>
+      </c>
+      <c r="K11">
+        <v>3.4545000000000001E-3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1100</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1200</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1300</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1400</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.9E-6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1500</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1600</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.0999999999999998E-6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1700</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1800</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1900</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2100</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2200</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2300</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.9E-6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2400</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2500</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2600</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2700</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2800</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2900</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3000</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3100</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3200</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3300</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3400</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3500</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3600</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3700</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3800</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3900</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2.3999999999999999E-6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4000</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4100</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4200</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2.7999999999999999E-6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4300</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4400</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4500</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4600</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>4700</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4800</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4900</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>5000</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>5100</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>5200</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>5300</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>5400</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>5500</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>5600</v>
+      </c>
+      <c r="B57" s="1">
+        <v>9.0999999999999993E-6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>5700</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>5800</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>5900</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>6000</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>6100</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>6200</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6300</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>6400</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>6500</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>6600</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>6700</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>6800</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>6900</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>7000</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>7100</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>7200</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>7300</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>7400</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>7500</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>7600</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>7700</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>7800</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2.3999999999999999E-6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>7900</v>
+      </c>
+      <c r="B80" s="1">
+        <v>3.3000000000000002E-6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>8000</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>8100</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>8200</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>8300</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>8400</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>8500</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>8600</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>8700</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>8800</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>8900</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2.0999999999999998E-6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>9000</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>9100</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>9200</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>9300</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>9400</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>9500</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>9600</v>
+      </c>
+      <c r="B97" s="1">
+        <v>3.5999999999999998E-6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>9700</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1.9E-6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>9800</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>9900</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>10000</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>10100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>10200</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>10300</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>10400</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>10500</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>10600</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>10700</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>10800</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>10900</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>11000</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>11100</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>11200</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>11300</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>11400</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2.3E-6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>11500</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>11600</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2.9000000000000002E-6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>11700</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>11800</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>11900</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>12000</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>12100</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>12200</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>12300</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>12400</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>12500</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>12600</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>12700</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>12800</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>12900</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>13000</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>13100</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>13200</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>13300</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>13400</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>13500</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>13600</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>13700</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C138" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>13800</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="C139" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>13900</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>14000</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>14100</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>14200</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="C143" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>14300</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="C144" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>14400</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C145" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>14500</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>14600</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="C147" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>14700</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>14800</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C149" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>14900</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="C150" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>15000</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>15100</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>15200</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>15300</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>15400</v>
+      </c>
+      <c r="B155" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C155" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>15500</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>15600</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C157" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>15700</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C158" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>15800</v>
+      </c>
+      <c r="B159" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C159" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>15900</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="C160" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>16000</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C161" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>16100</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C162" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>16200</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>16300</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>16400</v>
+      </c>
+      <c r="B165" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C165" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>16500</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C166" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>16600</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C167" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>16700</v>
+      </c>
+      <c r="B168" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C168" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>16800</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>16900</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C170" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>17000</v>
+      </c>
+      <c r="B171" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C171" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>17100</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C172" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>17200</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C173" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>17300</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C174" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>17400</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C175" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>17500</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C176" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>17600</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="C177" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>17700</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C178" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>17800</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C179" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>17900</v>
+      </c>
+      <c r="B180" s="1">
+        <v>1.9E-6</v>
+      </c>
+      <c r="C180" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>18000</v>
+      </c>
+      <c r="B181" s="1">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="C181" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>18100</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="C182" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>18200</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="C183" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>18300</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C184" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>18400</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>18500</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1.3E-6</v>
+      </c>
+      <c r="C186" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>18600</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C187" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>18700</v>
+      </c>
+      <c r="B188" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C188" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>18800</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C189" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>18900</v>
+      </c>
+      <c r="B190" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C190" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>19000</v>
+      </c>
+      <c r="B191" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C191" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>19100</v>
+      </c>
+      <c r="B192" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C192" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>19200</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C193" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>19300</v>
+      </c>
+      <c r="B194" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C194" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>19400</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C195" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>19500</v>
+      </c>
+      <c r="B196" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>19600</v>
+      </c>
+      <c r="B197" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C197" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>19700</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C198" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>19800</v>
+      </c>
+      <c r="B199" s="1">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="C199" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>19900</v>
+      </c>
+      <c r="B200" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C200" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>20000</v>
+      </c>
+      <c r="B201" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C201" t="s">
         <v>0</v>
       </c>
     </row>
